--- a/test/乾隆大藏经详目20170713_test.xlsx
+++ b/test/乾隆大藏经详目20170713_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>sutra__name</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -228,6 +224,10 @@
   </si>
   <si>
     <t>QL0002_R1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>name111</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1386,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1409,10 +1409,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -1427,33 +1427,33 @@
         <v>8</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>1</v>
@@ -1461,190 +1461,190 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="11"/>
     </row>

--- a/test/乾隆大藏经详目20170713_test.xlsx
+++ b/test/乾隆大藏经详目20170713_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <t>大清三藏聖教目錄</t>
   </si>
   <si>
-    <t>御製重刊藏經序（2-3页）；貞觀三藏聖教序（4-5页）；永徽三藏聖教記（6-7页）；正統御製大藏經序（8-9页）；萬曆御製新刋續入藏經序（10-11页）；萬曆御製聖母印施佛藏經序（12-13页）；聖母印施佛藏經讚（14-16页）；大般若經初會序（17-17页）</t>
-  </si>
-  <si>
     <t>大清重刻龍藏彚記</t>
   </si>
   <si>
@@ -227,7 +224,11 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>name111</t>
+    <t>name</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>御製重刊藏經序（2-3页）zp貞觀三藏聖教序（4-5页）；永徽三藏聖教記（6-7页）；正統御製大藏經序（8-9页）；萬曆御製新刋續入藏經序（10-11页）；萬曆御製聖母印施佛藏經序（12-13页）；聖母印施佛藏經讚（14-16页）；大般若經初會序（17-17页）</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1403,248 +1404,248 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="18">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="11"/>
     </row>
